--- a/spec/files/small_list_repeat_vars.xlsx
+++ b/spec/files/small_list_repeat_vars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="27520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -4494,7 +4494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5131,17 +5131,17 @@
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="3">
+        <v>-4</v>
+      </c>
+      <c r="K22" s="3">
         <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>-4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
         <f>(K22-J22)/6</f>
-        <v>-1.3333333333333333</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>30</v>

--- a/spec/files/small_list_repeat_vars.xlsx
+++ b/spec/files/small_list_repeat_vars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
     <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="468">
   <si>
     <t>type</t>
   </si>
@@ -99,12 +102,6 @@
     <t>Sample Method</t>
   </si>
   <si>
-    <t>LHS</t>
-  </si>
-  <si>
-    <t>Sensitivity Method</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Path (relative to this excel file)</t>
   </si>
   <si>
-    <t>../analysis</t>
-  </si>
-  <si>
     <t>Files to include (absolute paths here). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>Inputs</t>
   </si>
   <si>
-    <t>All Measures</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -1374,9 +1365,6 @@
     <t>|Residential Gas,Small CG,Large CG,Interruptible Industrial G,Non-Xcel Gas Firm,Non-Xcel Gas Interruptible|</t>
   </si>
   <si>
-    <t>Test Run 1</t>
-  </si>
-  <si>
     <t>../../spec/files/measures</t>
   </si>
   <si>
@@ -1387,6 +1375,63 @@
   </si>
   <si>
     <t>../../spec/files/small_seed.osm</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Spreadsheet Version</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
+  </si>
+  <si>
+    <t>Do NOT change this unless advised</t>
+  </si>
+  <si>
+    <t>Server Instance Type</t>
+  </si>
+  <si>
+    <t>m2.xlarge</t>
+  </si>
+  <si>
+    <t>Use a minimum of 2 cores for server</t>
+  </si>
+  <si>
+    <t>Worker Instance Type</t>
+  </si>
+  <si>
+    <t>Depends on how many simuations. If you are testing, then you can select a smaller instance.</t>
+  </si>
+  <si>
+    <t>Example Analysis</t>
+  </si>
+  <si>
+    <t>This will be the name that is displayed on the server instance and used to identify the cluster.</t>
+  </si>
+  <si>
+    <t>../../spec/files/export/analysis</t>
+  </si>
+  <si>
+    <t>Place any Problem Specific entries here.  The names will be downcased and underscored automatically, so either enter them as readable or already "snake_cased"</t>
+  </si>
+  <si>
+    <t>Analysis Type</t>
+  </si>
+  <si>
+    <t>Algorithm Setup</t>
+  </si>
+  <si>
+    <t>all_variables</t>
+  </si>
+  <si>
+    <t>Number of Generations</t>
+  </si>
+  <si>
+    <t>If there are more than one seed models, then you will submit the same analysis for each seed model.</t>
+  </si>
+  <si>
+    <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1477,6 +1522,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2722,7 +2779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2771,6 +2828,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4017,6 +4088,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Setup"/>
+      <sheetName val="Variables"/>
+      <sheetName val="BCL Measure Data"/>
+      <sheetName val="Lookups"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>m2.xlarge</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>2 Cores</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>$0.410/hour</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>m2.2xlarge</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>4 Cores</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>$0.820/hour</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>c3.2xlarge</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>8 Cores</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>$1.20/hour</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>cc2.8xlarge</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>16 Cores</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>$2.40/hour</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4317,12 +4454,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4338,149 +4475,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="13" customFormat="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="13" customFormat="1">
+      <c r="A2" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28">
+      <c r="A5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),2)</f>
+        <v>2 Cores</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),3)</f>
+        <v>$0.410/hour</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A15" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="26">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A11" s="12" t="s">
+      <c r="B23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B26" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="28">
-      <c r="A17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lookups!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -4492,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
@@ -4519,7 +4775,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -4535,7 +4791,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
@@ -4548,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>22</v>
@@ -4564,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>16</v>
@@ -4579,7 +4835,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>12</v>
@@ -4626,13 +4882,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -4648,26 +4904,26 @@
     <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4679,19 +4935,19 @@
     <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6"/>
       <c r="H6">
@@ -4711,7 +4967,7 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
@@ -4719,19 +4975,19 @@
     <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7"/>
       <c r="H7">
@@ -4747,19 +5003,19 @@
     <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G8"/>
       <c r="H8">
@@ -4775,19 +5031,19 @@
     <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G9"/>
       <c r="H9">
@@ -4803,19 +5059,19 @@
     <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10"/>
       <c r="H10" t="b">
@@ -4831,19 +5087,19 @@
     <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G11"/>
       <c r="H11">
@@ -4859,19 +5115,19 @@
     <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G12"/>
       <c r="H12">
@@ -4887,19 +5143,19 @@
     <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13"/>
       <c r="H13">
@@ -4917,53 +5173,53 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -4982,24 +5238,24 @@
         <v>5</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -5007,19 +5263,19 @@
     </row>
     <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5027,19 +5283,19 @@
     </row>
     <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -5050,13 +5306,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -5072,19 +5328,19 @@
     <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20">
@@ -5105,25 +5361,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20">
@@ -5144,25 +5400,25 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="b">
@@ -5175,13 +5431,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -5192,19 +5448,19 @@
     <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -5225,25 +5481,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -5254,19 +5510,19 @@
     <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20">
@@ -5277,19 +5533,19 @@
     <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -5302,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -5319,19 +5575,19 @@
     <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -5352,25 +5608,25 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20">
@@ -5381,19 +5637,19 @@
     <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20">
@@ -5404,19 +5660,19 @@
     <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20">
@@ -5429,13 +5685,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -5446,44 +5702,44 @@
     <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -5504,7 +5760,7 @@
         <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5547,13 +5803,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -5564,19 +5820,19 @@
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -5585,19 +5841,19 @@
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20" t="b">
@@ -5608,19 +5864,19 @@
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20">
@@ -5631,19 +5887,19 @@
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20">
@@ -5654,19 +5910,19 @@
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20">
@@ -5677,19 +5933,19 @@
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="b">
@@ -5700,19 +5956,19 @@
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20">
@@ -5723,19 +5979,19 @@
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20">
@@ -5746,19 +6002,19 @@
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5771,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -5788,19 +6044,19 @@
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -5809,19 +6065,19 @@
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20" t="b">
@@ -5832,19 +6088,19 @@
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
@@ -5855,19 +6111,19 @@
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20">
@@ -5878,19 +6134,19 @@
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="20">
@@ -5901,19 +6157,19 @@
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20" t="b">
@@ -5924,19 +6180,19 @@
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20">
@@ -5947,19 +6203,19 @@
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="20">
@@ -5970,19 +6226,19 @@
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="20">
@@ -5995,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -6012,19 +6268,19 @@
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20" t="b">
@@ -6035,42 +6291,42 @@
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20">
@@ -6081,19 +6337,19 @@
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20">
@@ -6104,19 +6360,19 @@
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="20">
@@ -6127,19 +6383,19 @@
     <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="20" t="b">
@@ -6150,19 +6406,19 @@
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20">
@@ -6173,19 +6429,19 @@
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20">
@@ -6196,19 +6452,19 @@
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20">
@@ -6221,13 +6477,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -6238,19 +6494,19 @@
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -6259,19 +6515,19 @@
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20" t="b">
@@ -6282,19 +6538,19 @@
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20">
@@ -6305,19 +6561,19 @@
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E35" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20">
@@ -6328,19 +6584,19 @@
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="20">
@@ -6351,19 +6607,19 @@
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="20" t="b">
@@ -6374,19 +6630,19 @@
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="20">
@@ -6397,19 +6653,19 @@
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="20">
@@ -6420,19 +6676,19 @@
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="20">
@@ -6445,13 +6701,13 @@
         <v>0</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -6462,19 +6718,19 @@
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -6483,19 +6739,19 @@
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="20" t="b">
@@ -6506,19 +6762,19 @@
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G44" s="20"/>
       <c r="H44" s="20">
@@ -6529,19 +6785,19 @@
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="20">
@@ -6552,19 +6808,19 @@
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="20">
@@ -6575,19 +6831,19 @@
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="20" t="b">
@@ -6598,19 +6854,19 @@
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="20">
@@ -6621,19 +6877,19 @@
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="20">
@@ -6644,19 +6900,19 @@
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="20">
@@ -6669,13 +6925,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -6686,19 +6942,19 @@
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
@@ -6707,19 +6963,19 @@
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="20" t="b">
@@ -6730,19 +6986,19 @@
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="20">
@@ -6753,19 +7009,19 @@
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="20">
@@ -6776,19 +7032,19 @@
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="20">
@@ -6799,19 +7055,19 @@
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20" t="b">
@@ -6822,19 +7078,19 @@
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20">
@@ -6845,19 +7101,19 @@
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20">
@@ -6868,19 +7124,19 @@
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20">
@@ -6893,13 +7149,13 @@
         <v>0</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -6910,19 +7166,19 @@
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -6931,44 +7187,44 @@
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="20" t="b">
@@ -6979,19 +7235,19 @@
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="20">
@@ -7002,19 +7258,19 @@
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="20">
@@ -7025,19 +7281,19 @@
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="20">
@@ -7048,19 +7304,19 @@
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="20" t="b">
@@ -7071,19 +7327,19 @@
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E69" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="20">
@@ -7094,19 +7350,19 @@
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="20">
@@ -7117,19 +7373,19 @@
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E71" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="20">
@@ -7142,13 +7398,13 @@
         <v>0</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E72" s="20"/>
       <c r="F72" s="20"/>
@@ -7159,19 +7415,19 @@
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
@@ -7180,19 +7436,19 @@
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="20">
@@ -7203,44 +7459,44 @@
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E75" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G75" s="20"/>
       <c r="H75" s="20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="20">
@@ -7251,19 +7507,19 @@
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E77" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="20">
@@ -7274,19 +7530,19 @@
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E78" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="20">
@@ -7297,19 +7553,19 @@
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E79" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F79" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="20">
@@ -7320,19 +7576,19 @@
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E80" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20">
@@ -7343,19 +7599,19 @@
     <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="20">
@@ -7366,19 +7622,19 @@
     <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E82" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="20" t="b">
@@ -7389,19 +7645,19 @@
     <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E83" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20">
@@ -7412,19 +7668,19 @@
     <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="20">
@@ -7435,19 +7691,19 @@
     <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E85" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="20">
@@ -7460,13 +7716,13 @@
         <v>0</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="20"/>
@@ -7477,19 +7733,19 @@
     <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E87" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="20">
@@ -7500,42 +7756,42 @@
     <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E88" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I88" s="20"/>
     </row>
     <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E89" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="20" t="b">
@@ -7546,19 +7802,19 @@
     <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E90" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="20">
@@ -7569,19 +7825,19 @@
     <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E91" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="20">
@@ -7592,19 +7848,19 @@
     <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E92" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="20">
@@ -7615,19 +7871,19 @@
     <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F93" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20" t="b">
@@ -7638,19 +7894,19 @@
     <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="20">
@@ -7661,19 +7917,19 @@
     <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="20">
@@ -7684,19 +7940,19 @@
     <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="20">
@@ -7709,13 +7965,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -7726,26 +7982,26 @@
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E98" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15">
@@ -7753,13 +8009,13 @@
         <v>0</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -7770,19 +8026,19 @@
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E100" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
@@ -7791,26 +8047,26 @@
     <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E101" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F101" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="I101" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15">
@@ -7818,13 +8074,13 @@
         <v>0</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -7835,19 +8091,19 @@
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E103" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="20">
@@ -7858,44 +8114,44 @@
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E104" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E105" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="20" t="b">
@@ -7906,19 +8162,19 @@
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D106" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E106" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
@@ -7929,13 +8185,13 @@
         <v>0</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
@@ -7946,44 +8202,44 @@
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E108" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D109" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E109" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="20">
@@ -7994,19 +8250,19 @@
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D110" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E110" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="20">
@@ -8017,19 +8273,19 @@
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E111" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="20">
@@ -8040,19 +8296,19 @@
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D112" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E112" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F112" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="20">
@@ -8063,19 +8319,19 @@
     <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D113" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F113" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="20">
@@ -8086,19 +8342,19 @@
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D114" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E114" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="20">
@@ -8111,13 +8367,13 @@
         <v>0</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D115" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -8128,19 +8384,19 @@
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D116" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E116" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="20">
@@ -8151,19 +8407,19 @@
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D117" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E117" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="20">
@@ -8174,19 +8430,19 @@
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D118" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E118" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F118" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="20" t="b">
@@ -8199,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D119" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20"/>
@@ -8216,19 +8472,19 @@
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D120" s="20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E120" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G120" s="20"/>
       <c r="H120" s="20">
@@ -8239,19 +8495,19 @@
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D121" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E121" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G121" s="20"/>
       <c r="H121" s="20">
@@ -8262,19 +8518,19 @@
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D122" s="20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E122" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G122" s="20"/>
       <c r="H122" s="20">
@@ -8285,19 +8541,19 @@
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E123" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G123" s="20"/>
       <c r="H123" s="20">
@@ -8308,19 +8564,19 @@
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E124" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G124" s="20"/>
       <c r="H124" s="20" t="b">
@@ -8331,19 +8587,19 @@
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E125" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G125" s="20"/>
       <c r="H125" s="20" t="b">
@@ -8356,13 +8612,13 @@
         <v>0</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="20"/>
@@ -8373,44 +8629,44 @@
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E127" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G127" s="20"/>
       <c r="H127" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E128" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G128" s="20"/>
       <c r="H128" s="20" t="b">
@@ -8421,19 +8677,19 @@
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E129" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F129" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G129" s="20"/>
       <c r="H129" s="20">
@@ -8444,19 +8700,19 @@
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F130" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G130" s="20"/>
       <c r="H130" s="20">
@@ -8467,19 +8723,19 @@
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E131" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G131" s="20"/>
       <c r="H131" s="20">
@@ -8490,19 +8746,19 @@
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E132" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G132" s="20"/>
       <c r="H132" s="20" t="b">
@@ -8513,19 +8769,19 @@
     <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E133" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G133" s="20"/>
       <c r="H133" s="20">
@@ -8536,19 +8792,19 @@
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E134" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G134" s="20"/>
       <c r="H134" s="20">
@@ -8559,19 +8815,19 @@
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E135" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G135" s="20"/>
       <c r="H135" s="20">
@@ -8584,13 +8840,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E136" s="20"/>
       <c r="F136" s="20"/>
@@ -8601,44 +8857,44 @@
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F137" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G137" s="20"/>
       <c r="H137" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E138" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G138" s="20"/>
       <c r="H138" s="20"/>
@@ -8647,19 +8903,19 @@
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E139" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G139" s="20"/>
       <c r="H139" s="20">
@@ -8670,19 +8926,19 @@
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E140" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G140" s="20"/>
       <c r="H140" s="20">
@@ -8693,19 +8949,19 @@
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E141" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G141" s="20"/>
       <c r="H141" s="20">
@@ -8716,19 +8972,19 @@
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E142" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G142" s="20"/>
       <c r="H142" s="20">
@@ -8739,19 +8995,19 @@
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E143" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G143" s="20"/>
       <c r="H143" s="20" t="b">
@@ -8762,19 +9018,19 @@
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E144" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G144" s="20"/>
       <c r="H144" s="20">
@@ -8785,19 +9041,19 @@
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E145" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F145" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G145" s="20"/>
       <c r="H145" s="20">
@@ -8808,19 +9064,19 @@
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E146" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F146" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G146" s="20"/>
       <c r="H146" s="20">
@@ -8831,19 +9087,19 @@
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E147" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F147" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G147" s="20"/>
       <c r="H147" s="20" t="b">
@@ -8854,19 +9110,19 @@
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E148" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F148" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G148" s="20"/>
       <c r="H148" s="20">
@@ -8877,19 +9133,19 @@
     <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E149" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F149" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20">
@@ -8900,19 +9156,19 @@
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D150" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E150" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F150" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G150" s="20"/>
       <c r="H150" s="20">
@@ -8925,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E151" s="20"/>
       <c r="F151" s="20"/>
@@ -8942,19 +9198,19 @@
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E152" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F152" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G152" s="20"/>
       <c r="H152" s="20">
@@ -8967,13 +9223,13 @@
         <v>0</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E153" s="20"/>
       <c r="F153" s="20"/>
@@ -8984,46 +9240,46 @@
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C154" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E154" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F154" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G154" s="20"/>
       <c r="H154" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I154" s="20"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C155" s="20" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E155" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F155" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G155" s="20"/>
       <c r="H155" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I155" s="20"/>
     </row>
@@ -9032,13 +9288,13 @@
         <v>0</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C156" s="20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E156" s="20"/>
       <c r="F156" s="20"/>
@@ -9049,44 +9305,44 @@
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C157" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E157" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F157" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G157" s="20"/>
       <c r="H157" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C158" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E158" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F158" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G158" s="20"/>
       <c r="H158" s="20">
@@ -9097,19 +9353,19 @@
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C159" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D159" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E159" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F159" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G159" s="20"/>
       <c r="H159" s="20" t="b">
@@ -9120,19 +9376,19 @@
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C160" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E160" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F160" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G160" s="20"/>
       <c r="H160" s="20">
@@ -9143,19 +9399,19 @@
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E161" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F161" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G161" s="20"/>
       <c r="H161" s="20">
@@ -9166,19 +9422,19 @@
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E162" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F162" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G162" s="20"/>
       <c r="H162" s="20">
@@ -9189,19 +9445,19 @@
     <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E163" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F163" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G163" s="20"/>
       <c r="H163" s="20" t="b">
@@ -9212,19 +9468,19 @@
     <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E164" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F164" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G164" s="20"/>
       <c r="H164" s="20">
@@ -9235,19 +9491,19 @@
     <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E165" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G165" s="20"/>
       <c r="H165" s="20">
@@ -9258,19 +9514,19 @@
     <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E166" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F166" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G166" s="20"/>
       <c r="H166" s="20">
@@ -9283,13 +9539,13 @@
         <v>0</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
@@ -9300,44 +9556,44 @@
     <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E168" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F168" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G168" s="20"/>
       <c r="H168" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I168" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E169" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G169" s="20"/>
       <c r="H169" s="20">
@@ -9348,19 +9604,19 @@
     <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E170" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F170" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G170" s="20"/>
       <c r="H170" s="20" t="b">
@@ -9371,19 +9627,19 @@
     <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E171" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G171" s="20"/>
       <c r="H171" s="20">
@@ -9394,19 +9650,19 @@
     <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D172" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E172" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G172" s="20"/>
       <c r="H172" s="20">
@@ -9417,19 +9673,19 @@
     <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C173" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D173" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E173" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F173" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G173" s="20"/>
       <c r="H173" s="20">
@@ -9440,19 +9696,19 @@
     <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C174" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D174" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F174" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G174" s="20"/>
       <c r="H174" s="20" t="b">
@@ -9463,19 +9719,19 @@
     <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E175" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G175" s="20"/>
       <c r="H175" s="20">
@@ -9486,19 +9742,19 @@
     <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E176" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F176" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G176" s="20"/>
       <c r="H176" s="20">
@@ -9509,19 +9765,19 @@
     <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E177" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F177" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G177" s="20"/>
       <c r="H177" s="20">
@@ -9534,13 +9790,13 @@
         <v>0</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E178" s="20"/>
       <c r="F178" s="20"/>
@@ -9551,19 +9807,19 @@
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E179" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F179" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G179" s="20"/>
       <c r="H179" s="20">
@@ -9574,19 +9830,19 @@
     <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D180" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E180" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F180" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G180" s="20"/>
       <c r="H180" s="20">
@@ -9597,19 +9853,19 @@
     <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D181" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E181" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F181" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G181" s="20"/>
       <c r="H181" s="20">
@@ -9620,19 +9876,19 @@
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D182" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E182" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F182" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G182" s="20"/>
       <c r="H182" s="20">
@@ -9645,13 +9901,13 @@
         <v>0</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D183" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E183" s="20"/>
       <c r="F183" s="20"/>
@@ -9662,19 +9918,19 @@
     <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D184" s="20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E184" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F184" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G184" s="20"/>
       <c r="H184" s="20">
@@ -9685,19 +9941,19 @@
     <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D185" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E185" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F185" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G185" s="20"/>
       <c r="H185" s="20">
@@ -9708,19 +9964,19 @@
     <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E186" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F186" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G186" s="20"/>
       <c r="H186" s="20">
@@ -9731,19 +9987,19 @@
     <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D187" s="20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E187" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F187" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G187" s="20"/>
       <c r="H187" s="20">
@@ -9756,13 +10012,13 @@
         <v>0</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D188" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E188" s="20"/>
       <c r="F188" s="20"/>
@@ -9773,19 +10029,19 @@
     <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D189" s="20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E189" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F189" s="20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G189" s="20"/>
       <c r="H189" s="20"/>
@@ -9794,19 +10050,19 @@
     <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D190" s="20" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F190" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G190" s="20"/>
       <c r="H190" s="20" t="b">
@@ -9819,13 +10075,13 @@
         <v>0</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D191" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E191" s="20"/>
       <c r="F191" s="20"/>
@@ -9836,19 +10092,19 @@
     <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D192" s="20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E192" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F192" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G192" s="20"/>
       <c r="H192" s="20" t="b">
@@ -9859,44 +10115,44 @@
     <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D193" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E193" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F193" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G193" s="20"/>
       <c r="H193" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I193" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D194" s="20" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E194" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F194" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G194" s="20"/>
       <c r="H194" s="20"/>
@@ -9905,51 +10161,51 @@
     <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D195" s="20" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E195" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F195" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G195" s="20"/>
       <c r="H195" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I195" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D196" s="20" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F196" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G196" s="20"/>
       <c r="H196" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I196" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15">
@@ -9957,13 +10213,13 @@
         <v>0</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D197" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E197" s="20"/>
       <c r="F197" s="20"/>
@@ -9974,44 +10230,44 @@
     <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D198" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E198" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F198" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G198" s="20"/>
       <c r="H198" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I198" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D199" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F199" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G199" s="20"/>
       <c r="H199" s="20">
@@ -10022,19 +10278,19 @@
     <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D200" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E200" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F200" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G200" s="20"/>
       <c r="H200" s="20">
@@ -10045,19 +10301,19 @@
     <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F201" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G201" s="20"/>
       <c r="H201" s="20">
@@ -10068,19 +10324,19 @@
     <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D202" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F202" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G202" s="20"/>
       <c r="H202" s="20">
@@ -10091,19 +10347,19 @@
     <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D203" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F203" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G203" s="20"/>
       <c r="H203" s="20" t="b">
@@ -10114,19 +10370,19 @@
     <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D204" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F204" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G204" s="20"/>
       <c r="H204" s="20">
@@ -10137,19 +10393,19 @@
     <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C205" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D205" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F205" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G205" s="20"/>
       <c r="H205" s="20">
@@ -10160,19 +10416,19 @@
     <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D206" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F206" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G206" s="20"/>
       <c r="H206" s="20">
@@ -10185,13 +10441,13 @@
         <v>0</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D207" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
@@ -10202,44 +10458,44 @@
     <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D208" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F208" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G208" s="20"/>
       <c r="H208" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I208" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F209" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G209" s="20"/>
       <c r="H209" s="20">
@@ -10250,19 +10506,19 @@
     <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F210" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G210" s="20"/>
       <c r="H210" s="20">
@@ -10273,19 +10529,19 @@
     <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F211" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G211" s="20"/>
       <c r="H211" s="20">
@@ -10296,19 +10552,19 @@
     <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D212" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F212" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G212" s="20"/>
       <c r="H212" s="20">
@@ -10319,19 +10575,19 @@
     <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D213" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F213" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G213" s="20"/>
       <c r="H213" s="20" t="b">
@@ -10342,19 +10598,19 @@
     <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D214" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F214" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G214" s="20"/>
       <c r="H214" s="20">
@@ -10365,19 +10621,19 @@
     <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D215" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F215" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G215" s="20"/>
       <c r="H215" s="20">
@@ -10388,19 +10644,19 @@
     <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C216" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D216" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F216" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G216" s="20"/>
       <c r="H216" s="20">
@@ -10413,13 +10669,13 @@
         <v>0</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D217" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
@@ -10430,19 +10686,19 @@
     <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F218" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G218" s="20"/>
       <c r="H218" s="20"/>
@@ -10451,19 +10707,19 @@
     <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D219" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G219" s="20"/>
       <c r="H219" s="20">
@@ -10474,19 +10730,19 @@
     <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D220" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G220" s="20"/>
       <c r="H220" s="20" t="b">
@@ -10497,19 +10753,19 @@
     <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D221" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G221" s="20"/>
       <c r="H221" s="20">
@@ -10520,19 +10776,19 @@
     <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D222" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F222" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20">
@@ -10543,19 +10799,19 @@
     <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D223" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G223" s="20"/>
       <c r="H223" s="20" t="b">
@@ -10566,19 +10822,19 @@
     <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D224" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G224" s="20"/>
       <c r="H224" s="20">
@@ -10589,19 +10845,19 @@
     <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D225" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E225" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F225" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G225" s="20"/>
       <c r="H225" s="20">
@@ -10612,19 +10868,19 @@
     <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F226" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G226" s="20"/>
       <c r="H226" s="20" t="b">
@@ -10635,19 +10891,19 @@
     <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D227" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F227" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G227" s="20"/>
       <c r="H227" s="20">
@@ -10658,19 +10914,19 @@
     <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D228" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E228" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F228" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G228" s="20"/>
       <c r="H228" s="20">
@@ -10681,19 +10937,19 @@
     <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D229" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F229" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G229" s="20"/>
       <c r="H229" s="20">
@@ -10704,19 +10960,19 @@
     <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D230" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F230" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G230" s="20"/>
       <c r="H230" s="20">
@@ -10727,19 +10983,19 @@
     <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D231" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E231" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F231" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G231" s="20"/>
       <c r="H231" s="20">
@@ -10750,19 +11006,19 @@
     <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D232" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E232" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G232" s="20"/>
       <c r="H232" s="20">
@@ -10773,19 +11029,19 @@
     <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D233" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E233" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F233" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G233" s="20"/>
       <c r="H233" s="20">
@@ -10798,13 +11054,13 @@
         <v>0</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D234" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
@@ -10815,19 +11071,19 @@
     <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D235" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F235" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G235" s="20"/>
       <c r="H235" s="20"/>
@@ -10836,19 +11092,19 @@
     <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D236" s="20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F236" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G236" s="20"/>
       <c r="H236" s="20">
@@ -10859,19 +11115,19 @@
     <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D237" s="20" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E237" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F237" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G237" s="20"/>
       <c r="H237" s="20" t="b">
@@ -10882,19 +11138,19 @@
     <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D238" s="20" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F238" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20">
@@ -10905,19 +11161,19 @@
     <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D239" s="20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F239" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G239" s="20"/>
       <c r="H239" s="20">
@@ -10928,19 +11184,19 @@
     <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D240" s="20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F240" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G240" s="20"/>
       <c r="H240" s="20" t="b">
@@ -10951,19 +11207,19 @@
     <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C241" s="20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D241" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F241" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G241" s="20"/>
       <c r="H241" s="20">
@@ -10974,19 +11230,19 @@
     <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D242" s="20" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F242" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G242" s="20"/>
       <c r="H242" s="20">
@@ -10997,19 +11253,19 @@
     <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D243" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F243" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G243" s="20"/>
       <c r="H243" s="20" t="b">
@@ -11020,19 +11276,19 @@
     <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D244" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F244" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G244" s="20"/>
       <c r="H244" s="20">
@@ -11043,19 +11299,19 @@
     <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D245" s="20" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F245" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G245" s="20"/>
       <c r="H245" s="20">
@@ -11066,19 +11322,19 @@
     <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F246" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G246" s="20"/>
       <c r="H246" s="20">
@@ -11089,19 +11345,19 @@
     <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D247" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F247" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G247" s="20"/>
       <c r="H247" s="20">
@@ -11112,19 +11368,19 @@
     <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D248" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F248" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G248" s="20"/>
       <c r="H248" s="20">
@@ -11135,19 +11391,19 @@
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D249" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F249" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G249" s="20"/>
       <c r="H249" s="20">
@@ -11158,19 +11414,19 @@
     <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D250" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E250" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F250" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G250" s="20"/>
       <c r="H250" s="20">
@@ -11183,13 +11439,13 @@
         <v>0</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
@@ -11200,44 +11456,44 @@
     <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D252" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F252" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G252" s="20"/>
       <c r="H252" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I252" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C253" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D253" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E253" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F253" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G253" s="20"/>
       <c r="H253" s="20">
@@ -11248,19 +11504,19 @@
     <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D254" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G254" s="20"/>
       <c r="H254" s="20">
@@ -11271,19 +11527,19 @@
     <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D255" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F255" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G255" s="20"/>
       <c r="H255" s="20">
@@ -11294,19 +11550,19 @@
     <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G256" s="20"/>
       <c r="H256" s="20">
@@ -11319,13 +11575,13 @@
         <v>0</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D257" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
@@ -11336,44 +11592,44 @@
     <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C258" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G258" s="20"/>
       <c r="H258" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I258" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C259" s="20" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D259" s="20" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F259" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G259" s="20"/>
       <c r="H259" s="20">
@@ -11386,13 +11642,13 @@
         <v>0</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D260" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
@@ -11405,13 +11661,13 @@
         <v>0</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
@@ -11424,13 +11680,13 @@
         <v>0</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D262" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
@@ -11441,19 +11697,19 @@
     <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D263" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F263" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G263" s="20"/>
       <c r="H263" s="20"/>
@@ -11462,19 +11718,19 @@
     <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D264" s="20" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F264" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G264" s="20"/>
       <c r="H264" s="20" t="b">
@@ -11485,19 +11741,19 @@
     <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D265" s="20" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F265" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G265" s="20"/>
       <c r="H265" s="20" t="b">
@@ -11508,19 +11764,19 @@
     <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D266" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F266" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G266" s="20"/>
       <c r="H266" s="20" t="b">
@@ -11531,19 +11787,19 @@
     <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D267" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F267" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G267" s="20"/>
       <c r="H267" s="20">
@@ -11554,19 +11810,19 @@
     <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F268" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G268" s="20"/>
       <c r="H268" s="20">
@@ -11577,19 +11833,19 @@
     <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D269" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F269" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G269" s="20"/>
       <c r="H269" s="20">
@@ -11600,19 +11856,19 @@
     <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D270" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F270" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G270" s="20"/>
       <c r="H270" s="20" t="b">
@@ -11623,19 +11879,19 @@
     <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D271" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F271" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G271" s="20"/>
       <c r="H271" s="20">
@@ -11646,19 +11902,19 @@
     <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F272" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="20">
@@ -11669,19 +11925,19 @@
     <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D273" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F273" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G273" s="20"/>
       <c r="H273" s="20">
@@ -11694,13 +11950,13 @@
         <v>0</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D274" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
@@ -11711,19 +11967,19 @@
     <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C275" s="20" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D275" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F275" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G275" s="20"/>
       <c r="H275" s="20">
@@ -11736,13 +11992,13 @@
         <v>0</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
@@ -11753,44 +12009,44 @@
     <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F277" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G277" s="20"/>
       <c r="H277" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="I277" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D278" s="20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F278" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G278" s="20"/>
       <c r="H278" s="20">
@@ -11801,19 +12057,19 @@
     <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D279" s="20" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F279" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G279" s="20"/>
       <c r="H279" s="20">
@@ -11824,19 +12080,19 @@
     <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D280" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G280" s="20"/>
       <c r="H280" s="20" t="b">
@@ -11847,19 +12103,19 @@
     <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D281" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F281" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G281" s="20"/>
       <c r="H281" s="20">
@@ -11870,19 +12126,19 @@
     <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D282" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F282" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G282" s="20"/>
       <c r="H282" s="20">
@@ -11893,19 +12149,19 @@
     <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D283" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F283" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G283" s="20"/>
       <c r="H283" s="20">
@@ -11916,19 +12172,19 @@
     <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D284" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F284" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G284" s="20"/>
       <c r="H284" s="20" t="b">
@@ -11939,19 +12195,19 @@
     <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D285" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G285" s="20"/>
       <c r="H285" s="20">
@@ -11962,19 +12218,19 @@
     <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D286" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F286" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G286" s="20"/>
       <c r="H286" s="20">
@@ -11985,19 +12241,19 @@
     <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D287" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G287" s="20"/>
       <c r="H287" s="20">
@@ -12010,13 +12266,13 @@
         <v>0</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D288" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
@@ -12027,19 +12283,19 @@
     <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D289" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F289" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G289" s="20"/>
       <c r="H289" s="20">
@@ -12052,13 +12308,13 @@
         <v>0</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D290" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
@@ -12069,19 +12325,19 @@
     <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D291" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F291" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G291" s="20"/>
       <c r="H291" s="20"/>
@@ -12092,13 +12348,13 @@
         <v>0</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D292" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
@@ -12109,19 +12365,19 @@
     <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D293" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F293" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G293" s="20"/>
       <c r="H293" s="20"/>
@@ -12132,13 +12388,13 @@
         <v>0</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D294" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
@@ -12149,19 +12405,19 @@
     <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D295" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G295" s="20"/>
       <c r="H295" s="20"/>
@@ -12172,13 +12428,13 @@
         <v>0</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D296" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
@@ -12189,19 +12445,19 @@
     <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C297" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D297" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F297" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G297" s="20"/>
       <c r="H297" s="20">
@@ -12214,13 +12470,13 @@
         <v>0</v>
       </c>
       <c r="B298" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C298" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D298" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -12231,44 +12487,44 @@
     <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D299" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F299" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G299" s="20"/>
       <c r="H299" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I299" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C300" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D300" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F300" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G300" s="20"/>
       <c r="H300" s="20">
@@ -12279,19 +12535,19 @@
     <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C301" s="20" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D301" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G301" s="20"/>
       <c r="H301" s="20">
@@ -12302,19 +12558,19 @@
     <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C302" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D302" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F302" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G302" s="20"/>
       <c r="H302" s="20">
@@ -12325,19 +12581,19 @@
     <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D303" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E303" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F303" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G303" s="20"/>
       <c r="H303" s="20">
@@ -12348,19 +12604,19 @@
     <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D304" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E304" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F304" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G304" s="20"/>
       <c r="H304" s="20" t="b">
@@ -12371,19 +12627,19 @@
     <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D305" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F305" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G305" s="20"/>
       <c r="H305" s="20">
@@ -12394,19 +12650,19 @@
     <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D306" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F306" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G306" s="20"/>
       <c r="H306" s="20">
@@ -12417,19 +12673,19 @@
     <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D307" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E307" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F307" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G307" s="20"/>
       <c r="H307" s="20">
@@ -12442,13 +12698,13 @@
         <v>0</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D308" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
@@ -12459,19 +12715,19 @@
     <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D309" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E309" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F309" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G309" s="20"/>
       <c r="H309" s="20">
@@ -12482,19 +12738,19 @@
     <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C310" s="20" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D310" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E310" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F310" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G310" s="20"/>
       <c r="H310" s="20">
@@ -12505,19 +12761,19 @@
     <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D311" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F311" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G311" s="20"/>
       <c r="H311" s="20">
@@ -12528,19 +12784,19 @@
     <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C312" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D312" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E312" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F312" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G312" s="20"/>
       <c r="H312" s="20">
@@ -12553,13 +12809,13 @@
         <v>0</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C313" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D313" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
@@ -12570,19 +12826,19 @@
     <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D314" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F314" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G314" s="20"/>
       <c r="H314" s="20">
@@ -12593,19 +12849,19 @@
     <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C315" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D315" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E315" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F315" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G315" s="20"/>
       <c r="H315" s="20">
@@ -12616,26 +12872,26 @@
     <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C316" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D316" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E316" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F316" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G316" s="20"/>
       <c r="H316" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I316" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15">
@@ -12643,13 +12899,13 @@
         <v>0</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D317" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
@@ -12660,44 +12916,44 @@
     <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C318" s="20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D318" s="20" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F318" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G318" s="20"/>
       <c r="H318" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I318" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C319" s="20" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D319" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E319" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F319" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G319" s="20"/>
       <c r="H319" s="20">
@@ -12710,13 +12966,13 @@
         <v>0</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C320" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D320" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
@@ -12727,19 +12983,19 @@
     <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C321" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D321" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E321" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F321" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G321" s="20"/>
       <c r="H321" s="20"/>
@@ -12748,19 +13004,19 @@
     <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C322" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D322" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E322" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F322" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G322" s="20"/>
       <c r="H322" s="20"/>
@@ -12769,19 +13025,19 @@
     <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C323" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D323" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E323" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F323" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G323" s="20"/>
       <c r="H323" s="20" t="b">
@@ -12794,13 +13050,13 @@
         <v>0</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C324" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D324" s="20" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
@@ -12813,13 +13069,13 @@
         <v>0</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D325" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
@@ -12830,51 +13086,51 @@
     <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D326" s="20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E326" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G326" s="20"/>
       <c r="H326" s="20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D327" s="20" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E327" s="20" t="s">
         <v>2</v>
       </c>
       <c r="F327" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G327" s="20"/>
       <c r="H327" s="20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/spec/files/small_list_repeat_vars.xlsx
+++ b/spec/files/small_list_repeat_vars.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="12816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
     <sheet name="Setup" sheetId="7" r:id="rId2"/>
     <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="BCL Measure Data" sheetId="10" r:id="rId4"/>
+    <sheet name="Outputs" sheetId="11" r:id="rId4"/>
+    <sheet name="BCL Measure Data" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="475">
   <si>
     <t>type</t>
   </si>
@@ -1432,6 +1434,27 @@
   </si>
   <si>
     <t>You can change the identifier (which becomes the file name for the zip and json file) and the seed model location.</t>
+  </si>
+  <si>
+    <t>Variable Display Name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>objective function</t>
+  </si>
+  <si>
+    <t>objective function target</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>(double)</t>
   </si>
 </sst>
 </file>
@@ -2825,9 +2848,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2842,6 +2862,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4089,12 +4112,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
       <sheetName val="Setup"/>
       <sheetName val="Variables"/>
+      <sheetName val="Outputs"/>
       <sheetName val="BCL Measure Data"/>
       <sheetName val="Lookups"/>
     </sheetNames>
@@ -4103,7 +4127,8 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
             <v>m2.xlarge</v>
@@ -4447,17 +4472,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4477,39 +4502,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>450</v>
       </c>
@@ -4520,11 +4545,11 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>454</v>
       </c>
       <c r="C4" s="3" t="str">
@@ -4539,11 +4564,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>454</v>
       </c>
       <c r="C5" s="3" t="str">
@@ -4558,102 +4583,102 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1">
+    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="12"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>458</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="14" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>20</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -4662,19 +4687,19 @@
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -4687,28 +4712,28 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>447</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>448</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -4753,25 +4778,25 @@
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4790,16 +4815,16 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4812,7 +4837,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4877,7 +4902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -4901,7 +4926,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -4932,7 +4957,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -4972,7 +4997,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5000,7 +5025,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5028,7 +5053,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5056,7 +5081,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5084,7 +5109,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5112,7 +5137,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5140,7 +5165,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5168,7 +5193,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1">
+    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5182,7 +5207,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1">
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5205,7 +5230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1">
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5241,7 +5266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5261,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5281,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5301,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15">
+    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5325,7 +5350,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15">
+    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5364,7 +5389,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15">
+    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5403,7 +5428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15">
+    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5426,7 +5451,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15">
+    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5445,7 +5470,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15">
+    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5484,7 +5509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15">
+    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5507,7 +5532,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15">
+    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5530,7 +5555,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15">
+    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5553,7 +5578,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15">
+    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5572,7 +5597,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15">
+    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5611,7 +5636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15">
+    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5634,7 +5659,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15">
+    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5657,7 +5682,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15">
+    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5680,7 +5705,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15">
+    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5699,7 +5724,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15">
+    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5724,7 +5749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15">
+    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5780,25 +5805,512 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="5"/>
+    <col min="10" max="15" width="11.44140625" style="1"/>
+    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7" s="15"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+    </row>
+    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView topLeftCell="A228" workbookViewId="0">
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -5817,7 +6329,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -5838,7 +6350,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -5861,7 +6373,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -5884,7 +6396,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -5907,7 +6419,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -5930,7 +6442,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -5953,7 +6465,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -5976,7 +6488,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -5999,7 +6511,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6022,7 +6534,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6041,7 +6553,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6062,7 +6574,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6085,7 +6597,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6108,7 +6620,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6131,7 +6643,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6154,7 +6666,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6177,7 +6689,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6200,7 +6712,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6223,7 +6735,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6246,7 +6758,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6265,7 +6777,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -6288,7 +6800,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -6311,7 +6823,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -6334,7 +6846,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -6357,7 +6869,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -6380,7 +6892,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -6403,7 +6915,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -6426,7 +6938,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -6449,7 +6961,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -6472,7 +6984,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -6491,7 +7003,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -6512,7 +7024,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -6535,7 +7047,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -6558,7 +7070,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -6581,7 +7093,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -6604,7 +7116,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -6627,7 +7139,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -6650,7 +7162,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -6673,7 +7185,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -6696,7 +7208,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -6715,7 +7227,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -6736,7 +7248,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -6759,7 +7271,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -6782,7 +7294,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -6805,7 +7317,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -6828,7 +7340,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -6851,7 +7363,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -6874,7 +7386,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -6897,7 +7409,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -6920,7 +7432,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -6939,7 +7451,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -6960,7 +7472,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -6983,7 +7495,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7006,7 +7518,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7029,7 +7541,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7052,7 +7564,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7075,7 +7587,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7098,7 +7610,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7121,7 +7633,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7144,7 +7656,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7163,7 +7675,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7184,7 +7696,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7209,7 +7721,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7232,7 +7744,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7255,7 +7767,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -7278,7 +7790,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -7301,7 +7813,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -7324,7 +7836,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -7347,7 +7859,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -7370,7 +7882,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -7393,7 +7905,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7412,7 +7924,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -7433,7 +7945,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -7456,7 +7968,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -7481,7 +7993,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -7504,7 +8016,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -7527,7 +8039,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -7550,7 +8062,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -7573,7 +8085,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -7596,7 +8108,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -7619,7 +8131,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -7642,7 +8154,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -7665,7 +8177,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -7688,7 +8200,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -7711,7 +8223,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -7730,7 +8242,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -7753,7 +8265,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -7776,7 +8288,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -7799,7 +8311,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -7822,7 +8334,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -7845,7 +8357,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -7868,7 +8380,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -7891,7 +8403,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -7914,7 +8426,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -7937,7 +8449,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -7960,7 +8472,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -7979,7 +8491,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8004,7 +8516,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8023,7 +8535,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8044,7 +8556,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19" customHeight="1">
+    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8069,7 +8581,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8088,7 +8600,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8111,7 +8623,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8136,7 +8648,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8159,7 +8671,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8180,7 +8692,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8199,7 +8711,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8224,7 +8736,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8247,7 +8759,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8270,7 +8782,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -8293,7 +8805,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -8316,7 +8828,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -8339,7 +8851,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -8362,7 +8874,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8381,7 +8893,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -8404,7 +8916,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -8427,7 +8939,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -8450,7 +8962,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8469,7 +8981,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -8492,7 +9004,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -8515,7 +9027,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -8538,7 +9050,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -8561,7 +9073,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -8584,7 +9096,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -8607,7 +9119,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -8626,7 +9138,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -8651,7 +9163,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -8674,7 +9186,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -8697,7 +9209,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -8720,7 +9232,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -8743,7 +9255,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -8766,7 +9278,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -8789,7 +9301,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -8812,7 +9324,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -8835,7 +9347,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -8854,7 +9366,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -8879,7 +9391,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -8900,7 +9412,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -8923,7 +9435,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -8946,7 +9458,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -8969,7 +9481,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -8992,7 +9504,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9015,7 +9527,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9038,7 +9550,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9061,7 +9573,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9084,7 +9596,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9107,7 +9619,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9130,7 +9642,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9153,7 +9665,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9176,7 +9688,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9195,7 +9707,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9218,7 +9730,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9237,7 +9749,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9260,7 +9772,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -9283,7 +9795,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9302,7 +9814,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -9327,7 +9839,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -9350,7 +9862,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -9373,7 +9885,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -9396,7 +9908,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -9419,7 +9931,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -9442,7 +9954,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -9465,7 +9977,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -9488,7 +10000,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -9511,7 +10023,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -9534,7 +10046,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -9553,7 +10065,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -9578,7 +10090,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -9601,7 +10113,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -9624,7 +10136,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -9647,7 +10159,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -9670,7 +10182,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -9693,7 +10205,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -9716,7 +10228,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -9739,7 +10251,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -9762,7 +10274,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -9785,7 +10297,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -9804,7 +10316,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -9827,7 +10339,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -9850,7 +10362,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -9873,7 +10385,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -9896,7 +10408,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -9915,7 +10427,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -9938,7 +10450,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -9961,7 +10473,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -9984,7 +10496,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10007,7 +10519,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10026,7 +10538,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10047,7 +10559,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10070,7 +10582,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10089,7 +10601,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10112,7 +10624,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10137,7 +10649,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10158,7 +10670,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10183,7 +10695,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10208,7 +10720,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10227,7 +10739,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10252,7 +10764,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -10275,7 +10787,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -10298,7 +10810,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -10321,7 +10833,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -10344,7 +10856,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -10367,7 +10879,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -10390,7 +10902,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -10413,7 +10925,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -10436,7 +10948,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10455,7 +10967,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -10480,7 +10992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -10503,7 +11015,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -10526,7 +11038,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -10549,7 +11061,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -10572,7 +11084,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -10595,7 +11107,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -10618,7 +11130,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -10641,7 +11153,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -10664,7 +11176,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -10683,7 +11195,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -10704,7 +11216,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -10727,7 +11239,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -10750,7 +11262,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -10773,7 +11285,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -10796,7 +11308,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -10819,7 +11331,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -10842,7 +11354,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -10865,7 +11377,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -10888,7 +11400,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -10911,7 +11423,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -10934,7 +11446,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -10957,7 +11469,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -10980,7 +11492,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11003,7 +11515,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11026,7 +11538,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11049,7 +11561,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11068,7 +11580,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11089,7 +11601,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11112,7 +11624,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11135,7 +11647,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11158,7 +11670,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11181,7 +11693,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11204,7 +11716,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11227,7 +11739,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11250,7 +11762,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11273,7 +11785,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -11296,7 +11808,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -11319,7 +11831,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -11342,7 +11854,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -11365,7 +11877,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -11388,7 +11900,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -11411,7 +11923,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -11434,7 +11946,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11453,7 +11965,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -11478,7 +11990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -11501,7 +12013,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -11524,7 +12036,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -11547,7 +12059,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -11570,7 +12082,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -11589,7 +12101,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -11614,7 +12126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -11637,7 +12149,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -11656,7 +12168,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -11675,7 +12187,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -11694,7 +12206,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -11715,7 +12227,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -11738,7 +12250,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -11761,7 +12273,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -11784,7 +12296,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -11807,7 +12319,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -11830,7 +12342,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -11853,7 +12365,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -11876,7 +12388,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -11899,7 +12411,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -11922,7 +12434,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -11945,7 +12457,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -11964,7 +12476,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -11987,7 +12499,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12006,7 +12518,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12031,7 +12543,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12054,7 +12566,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12077,7 +12589,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12100,7 +12612,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12123,7 +12635,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12146,7 +12658,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12169,7 +12681,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12192,7 +12704,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12215,7 +12727,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12238,7 +12750,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12261,7 +12773,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12280,7 +12792,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -12303,7 +12815,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12322,7 +12834,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -12343,7 +12855,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12362,7 +12874,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -12383,7 +12895,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12402,7 +12914,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -12423,7 +12935,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12442,7 +12954,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -12465,7 +12977,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12484,7 +12996,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -12509,7 +13021,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -12532,7 +13044,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -12555,7 +13067,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -12578,7 +13090,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -12601,7 +13113,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -12624,7 +13136,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -12647,7 +13159,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -12670,7 +13182,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -12693,7 +13205,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -12712,7 +13224,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -12735,7 +13247,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -12758,7 +13270,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -12781,7 +13293,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -12804,7 +13316,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -12823,7 +13335,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -12846,7 +13358,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -12869,7 +13381,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -12894,7 +13406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -12913,7 +13425,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -12938,7 +13450,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -12961,7 +13473,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -12980,7 +13492,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13001,7 +13513,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13022,7 +13534,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13045,7 +13557,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13064,7 +13576,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13083,7 +13595,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13108,7 +13620,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>

--- a/spec/files/small_list_repeat_vars.xlsx
+++ b/spec/files/small_list_repeat_vars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="12816" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="478">
   <si>
     <t>type</t>
   </si>
@@ -1455,6 +1455,15 @@
   </si>
   <si>
     <t>(double)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1557,6 +1566,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2802,7 +2817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2864,6 +2879,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1233">
@@ -4112,7 +4134,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -4472,17 +4494,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4506,17 +4528,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="21"/>
@@ -4525,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>449</v>
       </c>
@@ -4534,7 +4556,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>450</v>
       </c>
@@ -4545,7 +4567,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>453</v>
       </c>
@@ -4564,7 +4586,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>456</v>
       </c>
@@ -4583,7 +4605,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4592,7 +4614,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4603,7 +4625,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4611,7 +4633,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4619,7 +4641,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
@@ -4630,7 +4652,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>462</v>
       </c>
@@ -4638,7 +4660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A15" s="12" t="s">
         <v>463</v>
       </c>
@@ -4649,7 +4671,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4657,7 +4679,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -4665,7 +4687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>465</v>
       </c>
@@ -4674,7 +4696,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -4687,7 +4709,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4695,7 +4717,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A23" s="12" t="s">
         <v>34</v>
       </c>
@@ -4712,7 +4734,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -4729,7 +4751,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -4778,25 +4800,25 @@
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4824,7 +4846,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4837,7 +4859,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -4902,7 +4924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -4926,7 +4948,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -4957,7 +4979,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -4997,7 +5019,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5025,7 +5047,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5053,7 +5075,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5081,7 +5103,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5109,7 +5131,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5137,7 +5159,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5165,7 +5187,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5193,7 +5215,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5207,7 +5229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5230,7 +5252,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5266,7 +5288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5286,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5306,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5326,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5350,7 +5372,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5389,7 +5411,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5428,7 +5450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5451,7 +5473,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5470,7 +5492,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5509,7 +5531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5532,7 +5554,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5555,7 +5577,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5578,7 +5600,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5597,7 +5619,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5636,7 +5658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5659,7 +5681,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5682,7 +5704,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5705,7 +5727,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5724,7 +5746,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5749,7 +5771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5809,28 +5831,28 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5856,36 +5878,45 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="28" t="s">
         <v>472</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>476</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="29" t="s">
+        <v>477</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
@@ -5897,7 +5928,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -5912,7 +5943,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -5929,7 +5960,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -5945,7 +5976,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="15"/>
@@ -5961,7 +5992,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -5977,7 +6008,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -5993,7 +6024,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6009,7 +6040,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6025,7 +6056,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6041,7 +6072,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6057,9 +6088,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1"/>
+    <row r="15" spans="1:22" customFormat="1"/>
+    <row r="16" spans="1:22" customFormat="1">
       <c r="C16" s="19"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -6067,10 +6098,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1"/>
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6086,7 +6117,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6102,7 +6133,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6118,7 +6149,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6129,7 +6160,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6140,7 +6171,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6154,7 +6185,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6165,7 +6196,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6176,7 +6207,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -6187,7 +6218,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -6198,7 +6229,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6212,7 +6243,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -6223,7 +6254,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6234,7 +6265,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -6245,7 +6276,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -6256,7 +6287,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6267,7 +6298,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -6287,6 +6318,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6298,19 +6334,19 @@
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6329,7 +6365,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -6350,7 +6386,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -6373,7 +6409,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -6396,7 +6432,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -6419,7 +6455,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -6442,7 +6478,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -6465,7 +6501,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -6488,7 +6524,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -6511,7 +6547,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6534,7 +6570,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6553,7 +6589,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6574,7 +6610,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6597,7 +6633,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6620,7 +6656,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6643,7 +6679,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6666,7 +6702,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6689,7 +6725,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6712,7 +6748,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6735,7 +6771,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6758,7 +6794,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6777,7 +6813,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -6800,7 +6836,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -6823,7 +6859,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -6846,7 +6882,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -6869,7 +6905,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -6892,7 +6928,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -6915,7 +6951,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -6938,7 +6974,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -6961,7 +6997,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -6984,7 +7020,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7003,7 +7039,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -7024,7 +7060,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -7047,7 +7083,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -7070,7 +7106,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -7093,7 +7129,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -7116,7 +7152,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -7139,7 +7175,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -7162,7 +7198,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -7185,7 +7221,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -7208,7 +7244,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7227,7 +7263,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -7248,7 +7284,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -7271,7 +7307,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -7294,7 +7330,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -7317,7 +7353,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -7340,7 +7376,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -7363,7 +7399,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -7386,7 +7422,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -7409,7 +7445,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -7432,7 +7468,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7451,7 +7487,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -7472,7 +7508,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -7495,7 +7531,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7518,7 +7554,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7541,7 +7577,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7564,7 +7600,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7587,7 +7623,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7610,7 +7646,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7633,7 +7669,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7656,7 +7692,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7675,7 +7711,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7696,7 +7732,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7721,7 +7757,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7744,7 +7780,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7767,7 +7803,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -7790,7 +7826,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -7813,7 +7849,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -7836,7 +7872,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -7859,7 +7895,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -7882,7 +7918,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -7905,7 +7941,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -7924,7 +7960,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -7945,7 +7981,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -7968,7 +8004,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -7993,7 +8029,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -8016,7 +8052,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -8039,7 +8075,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -8062,7 +8098,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -8085,7 +8121,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -8108,7 +8144,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -8131,7 +8167,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -8154,7 +8190,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -8177,7 +8213,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -8200,7 +8236,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -8223,7 +8259,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8242,7 +8278,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -8265,7 +8301,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -8288,7 +8324,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -8311,7 +8347,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -8334,7 +8370,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -8357,7 +8393,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -8380,7 +8416,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -8403,7 +8439,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -8426,7 +8462,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -8449,7 +8485,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -8472,7 +8508,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8491,7 +8527,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8516,7 +8552,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8535,7 +8571,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8556,7 +8592,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8581,7 +8617,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8600,7 +8636,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8623,7 +8659,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8648,7 +8684,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8671,7 +8707,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8692,7 +8728,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8711,7 +8747,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8736,7 +8772,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8759,7 +8795,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8782,7 +8818,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -8805,7 +8841,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -8828,7 +8864,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -8851,7 +8887,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -8874,7 +8910,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -8893,7 +8929,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -8916,7 +8952,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -8939,7 +8975,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -8962,7 +8998,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -8981,7 +9017,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -9004,7 +9040,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -9027,7 +9063,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -9050,7 +9086,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -9073,7 +9109,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -9096,7 +9132,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -9119,7 +9155,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9138,7 +9174,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -9163,7 +9199,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -9186,7 +9222,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -9209,7 +9245,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -9232,7 +9268,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -9255,7 +9291,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -9278,7 +9314,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -9301,7 +9337,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -9324,7 +9360,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -9347,7 +9383,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9366,7 +9402,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -9391,7 +9427,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -9412,7 +9448,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -9435,7 +9471,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -9458,7 +9494,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -9481,7 +9517,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -9504,7 +9540,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9527,7 +9563,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9550,7 +9586,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9573,7 +9609,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9596,7 +9632,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9619,7 +9655,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9642,7 +9678,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9665,7 +9701,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9688,7 +9724,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9707,7 +9743,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9730,7 +9766,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9749,7 +9785,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9772,7 +9808,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -9795,7 +9831,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -9814,7 +9850,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -9839,7 +9875,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -9862,7 +9898,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -9885,7 +9921,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -9908,7 +9944,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -9931,7 +9967,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -9954,7 +9990,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -9977,7 +10013,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -10000,7 +10036,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -10023,7 +10059,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -10046,7 +10082,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10065,7 +10101,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -10090,7 +10126,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -10113,7 +10149,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -10136,7 +10172,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -10159,7 +10195,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -10182,7 +10218,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -10205,7 +10241,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -10228,7 +10264,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -10251,7 +10287,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -10274,7 +10310,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -10297,7 +10333,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10316,7 +10352,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -10339,7 +10375,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -10362,7 +10398,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -10385,7 +10421,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -10408,7 +10444,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10427,7 +10463,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -10450,7 +10486,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -10473,7 +10509,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -10496,7 +10532,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10519,7 +10555,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10538,7 +10574,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10559,7 +10595,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10582,7 +10618,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10601,7 +10637,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10624,7 +10660,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10649,7 +10685,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10670,7 +10706,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10695,7 +10731,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10720,7 +10756,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10739,7 +10775,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10764,7 +10800,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -10787,7 +10823,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -10810,7 +10846,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -10833,7 +10869,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -10856,7 +10892,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -10879,7 +10915,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -10902,7 +10938,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -10925,7 +10961,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -10948,7 +10984,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -10967,7 +11003,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -10992,7 +11028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -11015,7 +11051,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -11038,7 +11074,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -11061,7 +11097,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -11084,7 +11120,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -11107,7 +11143,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -11130,7 +11166,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -11153,7 +11189,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -11176,7 +11212,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11195,7 +11231,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -11216,7 +11252,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -11239,7 +11275,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -11262,7 +11298,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -11285,7 +11321,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -11308,7 +11344,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -11331,7 +11367,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -11354,7 +11390,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -11377,7 +11413,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -11400,7 +11436,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -11423,7 +11459,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -11446,7 +11482,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -11469,7 +11505,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -11492,7 +11528,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11515,7 +11551,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11538,7 +11574,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11561,7 +11597,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11580,7 +11616,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11601,7 +11637,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11624,7 +11660,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11647,7 +11683,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11670,7 +11706,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11693,7 +11729,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11716,7 +11752,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11739,7 +11775,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11762,7 +11798,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11785,7 +11821,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -11808,7 +11844,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -11831,7 +11867,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -11854,7 +11890,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -11877,7 +11913,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -11900,7 +11936,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -11923,7 +11959,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -11946,7 +11982,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -11965,7 +12001,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -11990,7 +12026,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -12013,7 +12049,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -12036,7 +12072,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -12059,7 +12095,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -12082,7 +12118,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12101,7 +12137,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -12126,7 +12162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -12149,7 +12185,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12168,7 +12204,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12187,7 +12223,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12206,7 +12242,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -12227,7 +12263,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -12250,7 +12286,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -12273,7 +12309,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -12296,7 +12332,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -12319,7 +12355,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -12342,7 +12378,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -12365,7 +12401,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -12388,7 +12424,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -12411,7 +12447,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -12434,7 +12470,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -12457,7 +12493,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12476,7 +12512,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -12499,7 +12535,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12518,7 +12554,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12543,7 +12579,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12566,7 +12602,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12589,7 +12625,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12612,7 +12648,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12635,7 +12671,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12658,7 +12694,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12681,7 +12717,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12704,7 +12740,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12727,7 +12763,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12750,7 +12786,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12773,7 +12809,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12792,7 +12828,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -12815,7 +12851,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -12834,7 +12870,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -12855,7 +12891,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -12874,7 +12910,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -12895,7 +12931,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -12914,7 +12950,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -12935,7 +12971,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -12954,7 +12990,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -12977,7 +13013,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -12996,7 +13032,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -13021,7 +13057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -13044,7 +13080,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -13067,7 +13103,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -13090,7 +13126,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -13113,7 +13149,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -13136,7 +13172,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -13159,7 +13195,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -13182,7 +13218,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -13205,7 +13241,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13224,7 +13260,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -13247,7 +13283,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -13270,7 +13306,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -13293,7 +13329,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -13316,7 +13352,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13335,7 +13371,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -13358,7 +13394,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -13381,7 +13417,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -13406,7 +13442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13425,7 +13461,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -13450,7 +13486,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -13473,7 +13509,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13492,7 +13528,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13513,7 +13549,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13534,7 +13570,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13557,7 +13593,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13576,7 +13612,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13595,7 +13631,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13620,7 +13656,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>
